--- a/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/2.0_mismatch_정권_2_Jacob.xlsx
+++ b/data/combined data/combined data - 1 cleaning/cleaning step 2 - career/2.7 orgtree position & rank/2.0_mismatch_정권_2_Jacob.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\nkelites\data\combined data\combined data - 1 cleaning\cleaning step 2 - career\2.7 orgtree position &amp; rank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA40E00-469C-4889-BFF5-FC4E54286445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B11CD6-669E-460F-83FF-0905B2803984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5342" uniqueCount="892">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5342" uniqueCount="894">
   <si>
     <t>CareerString</t>
   </si>
@@ -28199,6 +28199,14 @@
   </si>
   <si>
     <t>_X국</t>
+  </si>
+  <si>
+    <t>6. Uncertain Position</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. Uncertain OrgName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -28692,10 +28700,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G102" sqref="G102"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.5" defaultRowHeight="19" customHeight="1"/>
@@ -28703,10 +28711,11 @@
     <col min="1" max="1" width="46.4140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="7.9140625" style="6" customWidth="1"/>
     <col min="3" max="4" width="2.9140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="9.4140625" style="4" customWidth="1"/>
-    <col min="6" max="7" width="54.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="6" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.58203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="4" customWidth="1"/>
     <col min="10" max="10" width="15.1640625" style="6" hidden="1" customWidth="1"/>
     <col min="11" max="14" width="0" style="6" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="47" style="4" customWidth="1"/>
@@ -29392,7 +29401,7 @@
         <v>172</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>112</v>
@@ -45520,7 +45529,7 @@
   <dimension ref="B3:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -45562,7 +45571,7 @@
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>85</v>
+        <v>893</v>
       </c>
       <c r="D7" t="s">
         <v>115</v>
@@ -45570,7 +45579,7 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>86</v>
+        <v>892</v>
       </c>
       <c r="D8" t="s">
         <v>116</v>
